--- a/sections/wshapes.xlsx
+++ b/sections/wshapes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cscru\Documents\Projects\Go_SteelBeam\sections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B49735BE-AED6-45E1-B58C-F3E359A8DAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA130DA-4AFB-4E66-99E6-2ACF54E28740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10276" xr2:uid="{451A1354-F0AF-4F91-948D-2CEA5A54000C}"/>
+    <workbookView xWindow="9518" yWindow="0" windowWidth="9765" windowHeight="10162" xr2:uid="{451A1354-F0AF-4F91-948D-2CEA5A54000C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="301">
   <si>
     <t>Shape</t>
   </si>
@@ -47,15 +47,9 @@
     <t>Sx</t>
   </si>
   <si>
-    <t>h0</t>
-  </si>
-  <si>
     <t>J</t>
   </si>
   <si>
-    <t>ry</t>
-  </si>
-  <si>
     <t>Cw</t>
   </si>
   <si>
@@ -927,6 +921,24 @@
   </si>
   <si>
     <t>Iy</t>
+  </si>
+  <si>
+    <t>Bf</t>
+  </si>
+  <si>
+    <t>Tf</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Tw</t>
+  </si>
+  <si>
+    <t>H0</t>
+  </si>
+  <si>
+    <t>Ry</t>
   </si>
 </sst>
 </file>
@@ -972,7 +984,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -990,6 +1002,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="13" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1326,15 +1341,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9987922D-9A98-4FB8-900E-75C695A639FD}">
-  <dimension ref="A1:H290"/>
+  <dimension ref="A1:L290"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="A291" sqref="A291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1345,24 +1360,36 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" t="s">
+        <v>295</v>
+      </c>
+      <c r="J1" t="s">
         <v>296</v>
       </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
+        <v>297</v>
+      </c>
+      <c r="L1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
       </c>
       <c r="B2" s="2">
         <v>2000</v>
@@ -1385,10 +1412,22 @@
       <c r="H2" s="2">
         <v>691000</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I2" s="3">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="J2" s="4">
+        <v>2.17</v>
+      </c>
+      <c r="K2" s="7">
+        <v>38</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2">
         <v>1800</v>
@@ -1411,10 +1450,22 @@
       <c r="H3" s="2">
         <v>608000</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I3" s="3">
+        <v>16</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1.97</v>
+      </c>
+      <c r="K3" s="7">
+        <v>38</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2">
         <v>1620</v>
@@ -1437,10 +1488,22 @@
       <c r="H4" s="2">
         <v>535000</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I4" s="3">
+        <v>15.9</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1.77</v>
+      </c>
+      <c r="K4" s="7">
+        <v>38</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
         <v>1410</v>
@@ -1463,10 +1526,22 @@
       <c r="H5" s="2">
         <v>461000</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I5" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1.58</v>
+      </c>
+      <c r="K5" s="7">
+        <v>38</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0.86499999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2">
         <v>1270</v>
@@ -1489,10 +1564,22 @@
       <c r="H6" s="2">
         <v>405000</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I6" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1.42</v>
+      </c>
+      <c r="K6" s="7">
+        <v>38</v>
+      </c>
+      <c r="L6" s="5">
+        <v>0.78500000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2">
         <v>1100</v>
@@ -1515,10 +1602,22 @@
       <c r="H7" s="2">
         <v>346000</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I7" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1.22</v>
+      </c>
+      <c r="K7" s="7">
+        <v>38</v>
+      </c>
+      <c r="L7" s="5">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2">
         <v>3080</v>
@@ -1541,10 +1640,22 @@
       <c r="H8" s="2">
         <v>1150000</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I8" s="3">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J8" s="4">
+        <v>3.54</v>
+      </c>
+      <c r="K8" s="7">
+        <v>34</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2">
         <v>2760</v>
@@ -1567,10 +1678,22 @@
       <c r="H9" s="2">
         <v>997000</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I9" s="3">
+        <v>16.7</v>
+      </c>
+      <c r="J9" s="4">
+        <v>3.23</v>
+      </c>
+      <c r="K9" s="7">
+        <v>34</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2">
         <v>2320</v>
@@ -1593,10 +1716,22 @@
       <c r="H10" s="2">
         <v>789000</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I10" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="J10" s="4">
+        <v>2.76</v>
+      </c>
+      <c r="K10" s="7">
+        <v>34</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2">
         <v>1960</v>
@@ -1619,10 +1754,22 @@
       <c r="H11" s="2">
         <v>638000</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I11" s="3">
+        <v>16.2</v>
+      </c>
+      <c r="J11" s="4">
+        <v>2.36</v>
+      </c>
+      <c r="K11" s="7">
+        <v>34</v>
+      </c>
+      <c r="L11" s="4">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2">
         <v>1800</v>
@@ -1645,10 +1792,22 @@
       <c r="H12" s="2">
         <v>579000</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I12" s="3">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="J12" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K12" s="7">
+        <v>34</v>
+      </c>
+      <c r="L12" s="4">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2">
         <v>1680</v>
@@ -1671,10 +1830,22 @@
       <c r="H13" s="2">
         <v>528000</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I13" s="3">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="J13" s="4">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K13" s="7">
+        <v>34</v>
+      </c>
+      <c r="L13" s="4">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="2">
         <v>1640</v>
@@ -1697,10 +1868,22 @@
       <c r="H14" s="2">
         <v>513000</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I14" s="3">
+        <v>16</v>
+      </c>
+      <c r="J14" s="4">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="K14" s="7">
+        <v>34</v>
+      </c>
+      <c r="L14" s="4">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" s="2">
         <v>1460</v>
@@ -1723,10 +1906,22 @@
       <c r="H15" s="2">
         <v>448000</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I15" s="3">
+        <v>15.9</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1.81</v>
+      </c>
+      <c r="K15" s="7">
+        <v>34</v>
+      </c>
+      <c r="L15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2">
         <v>1330</v>
@@ -1749,10 +1944,22 @@
       <c r="H16" s="2">
         <v>399000</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I16" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="K16" s="7">
+        <v>34</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2">
         <v>1250</v>
@@ -1775,10 +1982,22 @@
       <c r="H17" s="2">
         <v>379000</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I17" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1.58</v>
+      </c>
+      <c r="K17" s="7">
+        <v>34</v>
+      </c>
+      <c r="L17" s="5">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2">
         <v>1120</v>
@@ -1801,10 +2020,22 @@
       <c r="H18" s="2">
         <v>334000</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I18" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="J18" s="4">
+        <v>1.42</v>
+      </c>
+      <c r="K18" s="7">
+        <v>34</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" s="2">
         <v>964</v>
@@ -1827,10 +2058,22 @@
       <c r="H19" s="2">
         <v>284000</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I19" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="J19" s="4">
+        <v>1.22</v>
+      </c>
+      <c r="K19" s="7">
+        <v>34</v>
+      </c>
+      <c r="L19" s="5">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" s="2">
         <v>869</v>
@@ -1853,10 +2096,22 @@
       <c r="H20" s="2">
         <v>246000</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I20" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="J20" s="4">
+        <v>1.07</v>
+      </c>
+      <c r="K20" s="7">
+        <v>34</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" s="2">
         <v>1710</v>
@@ -1879,10 +2134,22 @@
       <c r="H21" s="2">
         <v>306000</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I21" s="3">
+        <v>12.4</v>
+      </c>
+      <c r="J21" s="4">
+        <v>2.52</v>
+      </c>
+      <c r="K21" s="7">
+        <v>34</v>
+      </c>
+      <c r="L21" s="4">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" s="2">
         <v>1430</v>
@@ -1905,10 +2172,22 @@
       <c r="H22" s="2">
         <v>241000</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I22" s="3">
+        <v>12.2</v>
+      </c>
+      <c r="J22" s="4">
+        <v>2.13</v>
+      </c>
+      <c r="K22" s="7">
+        <v>34</v>
+      </c>
+      <c r="L22" s="4">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2">
         <v>1410</v>
@@ -1931,10 +2210,22 @@
       <c r="H23" s="2">
         <v>239000</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I23" s="3">
+        <v>12.1</v>
+      </c>
+      <c r="J23" s="4">
+        <v>2.13</v>
+      </c>
+      <c r="K23" s="7">
+        <v>34</v>
+      </c>
+      <c r="L23" s="4">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24" s="2">
         <v>1270</v>
@@ -1957,10 +2248,22 @@
       <c r="H24" s="2">
         <v>208000</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I24" s="3">
+        <v>12</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1.93</v>
+      </c>
+      <c r="K24" s="7">
+        <v>34</v>
+      </c>
+      <c r="L24" s="4">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25" s="2">
         <v>1190</v>
@@ -1983,10 +2286,22 @@
       <c r="H25" s="2">
         <v>192000</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I25" s="3">
+        <v>12</v>
+      </c>
+      <c r="J25" s="4">
+        <v>1.81</v>
+      </c>
+      <c r="K25" s="7">
+        <v>34</v>
+      </c>
+      <c r="L25" s="4">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B26" s="2">
         <v>1130</v>
@@ -2009,10 +2324,22 @@
       <c r="H26" s="2">
         <v>181000</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I26" s="3">
+        <v>11.9</v>
+      </c>
+      <c r="J26" s="4">
+        <v>1.73</v>
+      </c>
+      <c r="K26" s="7">
+        <v>34</v>
+      </c>
+      <c r="L26" s="5">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2">
         <v>1010</v>
@@ -2035,10 +2362,22 @@
       <c r="H27" s="2">
         <v>161000</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I27" s="3">
+        <v>11.9</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1.58</v>
+      </c>
+      <c r="K27" s="7">
+        <v>34</v>
+      </c>
+      <c r="L27" s="5">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2">
         <v>906</v>
@@ -2061,10 +2400,22 @@
       <c r="H28" s="2">
         <v>141000</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I28" s="3">
+        <v>11.8</v>
+      </c>
+      <c r="J28" s="4">
+        <v>1.42</v>
+      </c>
+      <c r="K28" s="7">
+        <v>34</v>
+      </c>
+      <c r="L28" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2">
         <v>774</v>
@@ -2087,10 +2438,22 @@
       <c r="H29" s="2">
         <v>118000</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I29" s="3">
+        <v>11.8</v>
+      </c>
+      <c r="J29" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="K29" s="7">
+        <v>34</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B30" s="2">
         <v>693</v>
@@ -2113,10 +2476,22 @@
       <c r="H30" s="2">
         <v>99700</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I30" s="3">
+        <v>11.8</v>
+      </c>
+      <c r="J30" s="4">
+        <v>1.03</v>
+      </c>
+      <c r="K30" s="7">
+        <v>34</v>
+      </c>
+      <c r="L30" s="5">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2">
         <v>598</v>
@@ -2139,10 +2514,22 @@
       <c r="H31" s="2">
         <v>80000</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I31" s="3">
+        <v>11.8</v>
+      </c>
+      <c r="J31" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="K31" s="7">
+        <v>34</v>
+      </c>
+      <c r="L31" s="5">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2">
         <v>4130</v>
@@ -2165,10 +2552,22 @@
       <c r="H32" s="2">
         <v>1840000</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I32" s="3">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="J32" s="4">
+        <v>4.53</v>
+      </c>
+      <c r="K32" s="7">
+        <v>32.375</v>
+      </c>
+      <c r="L32" s="4">
+        <v>3.02</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" s="2">
         <v>3920</v>
@@ -2191,10 +2590,22 @@
       <c r="H33" s="2">
         <v>1710000</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I33" s="3">
+        <v>18.2</v>
+      </c>
+      <c r="J33" s="4">
+        <v>4.53</v>
+      </c>
+      <c r="K33" s="7">
+        <v>32.375</v>
+      </c>
+      <c r="L33" s="4">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B34" s="2">
         <v>3660</v>
@@ -2217,10 +2628,22 @@
       <c r="H34" s="2">
         <v>1540000</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I34" s="3">
+        <v>18</v>
+      </c>
+      <c r="J34" s="4">
+        <v>4.29</v>
+      </c>
+      <c r="K34" s="7">
+        <v>32.375</v>
+      </c>
+      <c r="L34" s="4">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B35" s="2">
         <v>3270</v>
@@ -2243,10 +2666,22 @@
       <c r="H35" s="2">
         <v>1330000</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I35" s="3">
+        <v>17.8</v>
+      </c>
+      <c r="J35" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="K35" s="7">
+        <v>32.375</v>
+      </c>
+      <c r="L35" s="4">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2">
         <v>2910</v>
@@ -2269,10 +2704,22 @@
       <c r="H36" s="2">
         <v>1130000</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I36" s="3">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="J36" s="4">
+        <v>3.54</v>
+      </c>
+      <c r="K36" s="7">
+        <v>31.375</v>
+      </c>
+      <c r="L36" s="4">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B37" s="2">
         <v>2330</v>
@@ -2295,10 +2742,22 @@
       <c r="H37" s="2">
         <v>846000</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I37" s="3">
+        <v>17.2</v>
+      </c>
+      <c r="J37" s="4">
+        <v>2.91</v>
+      </c>
+      <c r="K37" s="7">
+        <v>31.375</v>
+      </c>
+      <c r="L37" s="4">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2">
         <v>2130</v>
@@ -2321,10 +2780,22 @@
       <c r="H38" s="2">
         <v>754000</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I38" s="3">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="J38" s="4">
+        <v>2.68</v>
+      </c>
+      <c r="K38" s="7">
+        <v>31.375</v>
+      </c>
+      <c r="L38" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B39" s="2">
         <v>1910</v>
@@ -2347,10 +2818,22 @@
       <c r="H39" s="2">
         <v>661000</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I39" s="3">
+        <v>17</v>
+      </c>
+      <c r="J39" s="4">
+        <v>2.44</v>
+      </c>
+      <c r="K39" s="7">
+        <v>31.375</v>
+      </c>
+      <c r="L39" s="4">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B40" s="2">
         <v>1710</v>
@@ -2373,10 +2856,22 @@
       <c r="H40" s="2">
         <v>575000</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I40" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="J40" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K40" s="7">
+        <v>31.375</v>
+      </c>
+      <c r="L40" s="4">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B41" s="2">
         <v>1550</v>
@@ -2399,10 +2894,22 @@
       <c r="H41" s="2">
         <v>509000</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I41" s="3">
+        <v>16.7</v>
+      </c>
+      <c r="J41" s="4">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="K41" s="7">
+        <v>31.375</v>
+      </c>
+      <c r="L41" s="4">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2">
         <v>1410</v>
@@ -2425,10 +2932,22 @@
       <c r="H42" s="2">
         <v>456000</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I42" s="3">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="J42" s="4">
+        <v>1.85</v>
+      </c>
+      <c r="K42" s="7">
+        <v>31.375</v>
+      </c>
+      <c r="L42" s="4">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B43" s="2">
         <v>1280</v>
@@ -2451,10 +2970,22 @@
       <c r="H43" s="2">
         <v>412000</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I43" s="3">
+        <v>16.7</v>
+      </c>
+      <c r="J43" s="4">
+        <v>1.68</v>
+      </c>
+      <c r="K43" s="7">
+        <v>31.375</v>
+      </c>
+      <c r="L43" s="5">
+        <v>0.94499999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B44" s="2">
         <v>1190</v>
@@ -2477,10 +3008,22 @@
       <c r="H44" s="2">
         <v>378000</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I44" s="3">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="J44" s="4">
+        <v>1.57</v>
+      </c>
+      <c r="K44" s="7">
+        <v>31.375</v>
+      </c>
+      <c r="L44" s="5">
+        <v>0.88500000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B45" s="2">
         <v>1100</v>
@@ -2503,10 +3046,22 @@
       <c r="H45" s="2">
         <v>342000</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I45" s="3">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="J45" s="4">
+        <v>1.44</v>
+      </c>
+      <c r="K45" s="7">
+        <v>31.375</v>
+      </c>
+      <c r="L45" s="5">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B46" s="2">
         <v>1030</v>
@@ -2529,10 +3084,22 @@
       <c r="H46" s="2">
         <v>316000</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I46" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="J46" s="4">
+        <v>1.35</v>
+      </c>
+      <c r="K46" s="7">
+        <v>31.375</v>
+      </c>
+      <c r="L46" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B47" s="2">
         <v>963</v>
@@ -2555,10 +3122,22 @@
       <c r="H47" s="2">
         <v>292000</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I47" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="J47" s="4">
+        <v>1.26</v>
+      </c>
+      <c r="K47" s="7">
+        <v>31.375</v>
+      </c>
+      <c r="L47" s="5">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B48" s="2">
         <v>1610</v>
@@ -2581,10 +3160,22 @@
       <c r="H48" s="2">
         <v>294000</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I48" s="3">
+        <v>12.7</v>
+      </c>
+      <c r="J48" s="4">
+        <v>2.56</v>
+      </c>
+      <c r="K48" s="7">
+        <v>31.5</v>
+      </c>
+      <c r="L48" s="4">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B49" s="2">
         <v>1440</v>
@@ -2607,10 +3198,22 @@
       <c r="H49" s="2">
         <v>257000</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I49" s="3">
+        <v>12.6</v>
+      </c>
+      <c r="J49" s="4">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="K49" s="7">
+        <v>31.5</v>
+      </c>
+      <c r="L49" s="4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B50" s="2">
         <v>1300</v>
@@ -2633,10 +3236,22 @@
       <c r="H50" s="2">
         <v>222000</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I50" s="3">
+        <v>12.4</v>
+      </c>
+      <c r="J50" s="4">
+        <v>2.13</v>
+      </c>
+      <c r="K50" s="7">
+        <v>31.5</v>
+      </c>
+      <c r="L50" s="4">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B51" s="2">
         <v>1160</v>
@@ -2659,10 +3274,22 @@
       <c r="H51" s="2">
         <v>194000</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I51" s="3">
+        <v>12.3</v>
+      </c>
+      <c r="J51" s="4">
+        <v>1.93</v>
+      </c>
+      <c r="K51" s="7">
+        <v>31.5</v>
+      </c>
+      <c r="L51" s="4">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B52" s="2">
         <v>1040</v>
@@ -2685,10 +3312,22 @@
       <c r="H52" s="2">
         <v>168000</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I52" s="3">
+        <v>12.2</v>
+      </c>
+      <c r="J52" s="4">
+        <v>1.73</v>
+      </c>
+      <c r="K52" s="7">
+        <v>31.5</v>
+      </c>
+      <c r="L52" s="5">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B53" s="2">
         <v>936</v>
@@ -2711,10 +3350,22 @@
       <c r="H53" s="2">
         <v>148000</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I53" s="3">
+        <v>12.1</v>
+      </c>
+      <c r="J53" s="4">
+        <v>1.57</v>
+      </c>
+      <c r="K53" s="7">
+        <v>31.5</v>
+      </c>
+      <c r="L53" s="5">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B54" s="2">
         <v>833</v>
@@ -2737,10 +3388,22 @@
       <c r="H54" s="2">
         <v>128000</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I54" s="3">
+        <v>12.2</v>
+      </c>
+      <c r="J54" s="4">
+        <v>1.36</v>
+      </c>
+      <c r="K54" s="7">
+        <v>31.5</v>
+      </c>
+      <c r="L54" s="5">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B55" s="2">
         <v>767</v>
@@ -2763,10 +3426,22 @@
       <c r="H55" s="2">
         <v>116000</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I55" s="3">
+        <v>12.1</v>
+      </c>
+      <c r="J55" s="4">
+        <v>1.26</v>
+      </c>
+      <c r="K55" s="7">
+        <v>31.5</v>
+      </c>
+      <c r="L55" s="5">
+        <v>0.76500000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B56" s="2">
         <v>718</v>
@@ -2789,10 +3464,22 @@
       <c r="H56" s="2">
         <v>107000</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I56" s="3">
+        <v>12.1</v>
+      </c>
+      <c r="J56" s="4">
+        <v>1.18</v>
+      </c>
+      <c r="K56" s="7">
+        <v>31.5</v>
+      </c>
+      <c r="L56" s="5">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B57" s="2">
         <v>668</v>
@@ -2815,10 +3502,22 @@
       <c r="H57" s="2">
         <v>98500</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I57" s="3">
+        <v>12</v>
+      </c>
+      <c r="J57" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K57" s="7">
+        <v>31.5</v>
+      </c>
+      <c r="L57" s="5">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B58" s="2">
         <v>624</v>
@@ -2841,10 +3540,22 @@
       <c r="H58" s="2">
         <v>90200</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I58" s="3">
+        <v>12</v>
+      </c>
+      <c r="J58" s="4">
+        <v>1.02</v>
+      </c>
+      <c r="K58" s="7">
+        <v>31.5</v>
+      </c>
+      <c r="L58" s="5">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B59" s="2">
         <v>581</v>
@@ -2867,10 +3578,22 @@
       <c r="H59" s="2">
         <v>82200</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I59" s="3">
+        <v>12</v>
+      </c>
+      <c r="J59" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="K59" s="7">
+        <v>31.5</v>
+      </c>
+      <c r="L59" s="5">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B60" s="2">
         <v>509</v>
@@ -2893,10 +3616,22 @@
       <c r="H60" s="2">
         <v>68100</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I60" s="3">
+        <v>12</v>
+      </c>
+      <c r="J60" s="5">
+        <v>0.79</v>
+      </c>
+      <c r="K60" s="7">
+        <v>31.5</v>
+      </c>
+      <c r="L60" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B61" s="2">
         <v>1560</v>
@@ -2919,10 +3654,22 @@
       <c r="H61" s="2">
         <v>459000</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I61" s="3">
+        <v>16.2</v>
+      </c>
+      <c r="J61" s="4">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="K61" s="7">
+        <v>28.875</v>
+      </c>
+      <c r="L61" s="4">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B62" s="2">
         <v>1420</v>
@@ -2945,10 +3692,22 @@
       <c r="H62" s="2">
         <v>408000</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I62" s="3">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="J62" s="4">
+        <v>2.09</v>
+      </c>
+      <c r="K62" s="7">
+        <v>28.875</v>
+      </c>
+      <c r="L62" s="4">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B63" s="2">
         <v>1270</v>
@@ -2971,10 +3730,22 @@
       <c r="H63" s="2">
         <v>357000</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I63" s="3">
+        <v>16</v>
+      </c>
+      <c r="J63" s="4">
+        <v>1.89</v>
+      </c>
+      <c r="K63" s="7">
+        <v>28.875</v>
+      </c>
+      <c r="L63" s="4">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B64" s="2">
         <v>1160</v>
@@ -2997,10 +3768,22 @@
       <c r="H64" s="2">
         <v>319000</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I64" s="3">
+        <v>15.9</v>
+      </c>
+      <c r="J64" s="4">
+        <v>1.73</v>
+      </c>
+      <c r="K64" s="7">
+        <v>28.875</v>
+      </c>
+      <c r="L64" s="5">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B65" s="2">
         <v>1040</v>
@@ -3023,10 +3806,22 @@
       <c r="H65" s="2">
         <v>281000</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I65" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="J65" s="4">
+        <v>1.57</v>
+      </c>
+      <c r="K65" s="7">
+        <v>28.875</v>
+      </c>
+      <c r="L65" s="5">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B66" s="2">
         <v>940</v>
@@ -3049,10 +3844,22 @@
       <c r="H66" s="2">
         <v>251000</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I66" s="3">
+        <v>15.9</v>
+      </c>
+      <c r="J66" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="K66" s="7">
+        <v>28.875</v>
+      </c>
+      <c r="L66" s="5">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B67" s="2">
         <v>857</v>
@@ -3075,10 +3882,22 @@
       <c r="H67" s="2">
         <v>224000</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I67" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="J67" s="4">
+        <v>1.28</v>
+      </c>
+      <c r="K67" s="7">
+        <v>28.875</v>
+      </c>
+      <c r="L67" s="5">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B68" s="2">
         <v>773</v>
@@ -3101,10 +3920,22 @@
       <c r="H68" s="2">
         <v>198000</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I68" s="3">
+        <v>15.7</v>
+      </c>
+      <c r="J68" s="4">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K68" s="7">
+        <v>28.875</v>
+      </c>
+      <c r="L68" s="5">
+        <v>0.71499999999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B69" s="2">
         <v>629</v>
@@ -3127,10 +3958,22 @@
       <c r="H69" s="2">
         <v>82400</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I69" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="J69" s="4">
+        <v>1.22</v>
+      </c>
+      <c r="K69" s="7">
+        <v>28.875</v>
+      </c>
+      <c r="L69" s="5">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B70" s="2">
         <v>559</v>
@@ -3153,10 +3996,22 @@
       <c r="H70" s="2">
         <v>71700</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I70" s="3">
+        <v>11.6</v>
+      </c>
+      <c r="J70" s="4">
+        <v>1.06</v>
+      </c>
+      <c r="K70" s="7">
+        <v>28.875</v>
+      </c>
+      <c r="L70" s="5">
+        <v>0.63500000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B71" s="2">
         <v>514</v>
@@ -3179,10 +4034,22 @@
       <c r="H71" s="2">
         <v>64400</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I71" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="J71" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="K71" s="7">
+        <v>28.875</v>
+      </c>
+      <c r="L71" s="5">
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B72" s="2">
         <v>467</v>
@@ -3205,10 +4072,22 @@
       <c r="H72" s="2">
         <v>56600</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I72" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="J72" s="5">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="K72" s="7">
+        <v>28.875</v>
+      </c>
+      <c r="L72" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B73" s="2">
         <v>415</v>
@@ -3231,10 +4110,22 @@
       <c r="H73" s="2">
         <v>48300</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I73" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="J73" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="K73" s="7">
+        <v>28.875</v>
+      </c>
+      <c r="L73" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B74" s="2">
         <v>1450</v>
@@ -3257,10 +4148,22 @@
       <c r="H74" s="2">
         <v>366000</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I74" s="3">
+        <v>15.6</v>
+      </c>
+      <c r="J74" s="4">
+        <v>2.44</v>
+      </c>
+      <c r="K74" s="7">
+        <v>25.75</v>
+      </c>
+      <c r="L74" s="4">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B75" s="2">
         <v>1320</v>
@@ -3283,10 +4186,22 @@
       <c r="H75" s="2">
         <v>324000</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I75" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="J75" s="4">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="K75" s="7">
+        <v>25.75</v>
+      </c>
+      <c r="L75" s="4">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B76" s="2">
         <v>1190</v>
@@ -3309,10 +4224,22 @@
       <c r="H76" s="2">
         <v>287000</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I76" s="3">
+        <v>15.4</v>
+      </c>
+      <c r="J76" s="4">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="K76" s="7">
+        <v>25.75</v>
+      </c>
+      <c r="L76" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B77" s="2">
         <v>1060</v>
@@ -3335,10 +4262,22 @@
       <c r="H77" s="2">
         <v>250000</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I77" s="3">
+        <v>15.3</v>
+      </c>
+      <c r="J77" s="4">
+        <v>1.85</v>
+      </c>
+      <c r="K77" s="7">
+        <v>25.75</v>
+      </c>
+      <c r="L77" s="4">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B78" s="2">
         <v>943</v>
@@ -3361,10 +4300,22 @@
       <c r="H78" s="2">
         <v>215000</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I78" s="3">
+        <v>15.2</v>
+      </c>
+      <c r="J78" s="4">
+        <v>1.65</v>
+      </c>
+      <c r="K78" s="7">
+        <v>25.75</v>
+      </c>
+      <c r="L78" s="5">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B79" s="2">
         <v>847</v>
@@ -3387,10 +4338,22 @@
       <c r="H79" s="2">
         <v>190000</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I79" s="3">
+        <v>15.1</v>
+      </c>
+      <c r="J79" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="K79" s="7">
+        <v>25.75</v>
+      </c>
+      <c r="L79" s="5">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B80" s="2">
         <v>751</v>
@@ -3413,10 +4376,22 @@
       <c r="H80" s="2">
         <v>166000</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I80" s="3">
+        <v>15.1</v>
+      </c>
+      <c r="J80" s="4">
+        <v>1.32</v>
+      </c>
+      <c r="K80" s="7">
+        <v>25.75</v>
+      </c>
+      <c r="L80" s="5">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B81" s="2">
         <v>675</v>
@@ -3439,10 +4414,22 @@
       <c r="H81" s="2">
         <v>146000</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I81" s="3">
+        <v>15</v>
+      </c>
+      <c r="J81" s="4">
+        <v>1.19</v>
+      </c>
+      <c r="K81" s="7">
+        <v>25.75</v>
+      </c>
+      <c r="L81" s="5">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B82" s="2">
         <v>607</v>
@@ -3465,10 +4452,22 @@
       <c r="H82" s="2">
         <v>129000</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I82" s="3">
+        <v>15</v>
+      </c>
+      <c r="J82" s="4">
+        <v>1.07</v>
+      </c>
+      <c r="K82" s="7">
+        <v>25.75</v>
+      </c>
+      <c r="L82" s="5">
+        <v>0.65500000000000003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B83" s="2">
         <v>500</v>
@@ -3491,10 +4490,22 @@
       <c r="H83" s="2">
         <v>49400</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I83" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="J83" s="4">
+        <v>1.18</v>
+      </c>
+      <c r="K83" s="7">
+        <v>25.75</v>
+      </c>
+      <c r="L83" s="5">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B84" s="2">
         <v>437</v>
@@ -3517,10 +4528,22 @@
       <c r="H84" s="2">
         <v>42100</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I84" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="J84" s="4">
+        <v>1</v>
+      </c>
+      <c r="K84" s="7">
+        <v>25.75</v>
+      </c>
+      <c r="L84" s="5">
+        <v>0.61499999999999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B85" s="2">
         <v>408</v>
@@ -3543,10 +4566,22 @@
       <c r="H85" s="2">
         <v>38600</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I85" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="J85" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="K85" s="7">
+        <v>25.75</v>
+      </c>
+      <c r="L85" s="5">
+        <v>0.58499999999999996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B86" s="2">
         <v>378</v>
@@ -3569,10 +4604,22 @@
       <c r="H86" s="2">
         <v>34900</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I86" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="J86" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="K86" s="7">
+        <v>25.75</v>
+      </c>
+      <c r="L86" s="5">
+        <v>0.56499999999999995</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B87" s="2">
         <v>346</v>
@@ -3595,10 +4642,22 @@
       <c r="H87" s="2">
         <v>30900</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I87" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="J87" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="K87" s="7">
+        <v>25.75</v>
+      </c>
+      <c r="L87" s="5">
+        <v>0.54500000000000004</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B88" s="2">
         <v>312</v>
@@ -3621,10 +4680,22 @@
       <c r="H88" s="2">
         <v>26800</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I88" s="3">
+        <v>10.5</v>
+      </c>
+      <c r="J88" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="K88" s="7">
+        <v>25.75</v>
+      </c>
+      <c r="L88" s="5">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B89" s="2">
         <v>283</v>
@@ -3647,10 +4718,22 @@
       <c r="H89" s="2">
         <v>24000</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I89" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="J89" s="5">
+        <v>0.61</v>
+      </c>
+      <c r="K89" s="7">
+        <v>25.75</v>
+      </c>
+      <c r="L89" s="5">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B90" s="2">
         <v>1890</v>
@@ -3673,10 +4756,22 @@
       <c r="H90" s="2">
         <v>443000</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I90" s="3">
+        <v>15.3</v>
+      </c>
+      <c r="J90" s="4">
+        <v>3.54</v>
+      </c>
+      <c r="K90" s="7">
+        <v>23</v>
+      </c>
+      <c r="L90" s="4">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B91" s="2">
         <v>1240</v>
@@ -3699,10 +4794,22 @@
       <c r="H91" s="2">
         <v>255000</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I91" s="3">
+        <v>14.7</v>
+      </c>
+      <c r="J91" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="K91" s="7">
+        <v>23</v>
+      </c>
+      <c r="L91" s="4">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B92" s="2">
         <v>1130</v>
@@ -3725,10 +4832,22 @@
       <c r="H92" s="2">
         <v>226000</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I92" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="J92" s="4">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="K92" s="7">
+        <v>23</v>
+      </c>
+      <c r="L92" s="4">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B93" s="2">
         <v>1030</v>
@@ -3751,10 +4870,22 @@
       <c r="H93" s="2">
         <v>199000</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I93" s="3">
+        <v>14.4</v>
+      </c>
+      <c r="J93" s="4">
+        <v>2.09</v>
+      </c>
+      <c r="K93" s="7">
+        <v>23</v>
+      </c>
+      <c r="L93" s="4">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B94" s="2">
         <v>936</v>
@@ -3777,10 +4908,22 @@
       <c r="H94" s="2">
         <v>178000</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I94" s="3">
+        <v>14.4</v>
+      </c>
+      <c r="J94" s="4">
+        <v>1.93</v>
+      </c>
+      <c r="K94" s="7">
+        <v>23</v>
+      </c>
+      <c r="L94" s="4">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B95" s="2">
         <v>852</v>
@@ -3803,10 +4946,22 @@
       <c r="H95" s="2">
         <v>159000</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I95" s="3">
+        <v>14.3</v>
+      </c>
+      <c r="J95" s="4">
+        <v>1.77</v>
+      </c>
+      <c r="K95" s="7">
+        <v>23</v>
+      </c>
+      <c r="L95" s="5">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B96" s="2">
         <v>772</v>
@@ -3829,10 +4984,22 @@
       <c r="H96" s="2">
         <v>141000</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I96" s="3">
+        <v>14.2</v>
+      </c>
+      <c r="J96" s="4">
+        <v>1.61</v>
+      </c>
+      <c r="K96" s="7">
+        <v>23</v>
+      </c>
+      <c r="L96" s="5">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B97" s="2">
         <v>711</v>
@@ -3855,10 +5022,22 @@
       <c r="H97" s="2">
         <v>128000</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I97" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="J97" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="K97" s="7">
+        <v>23</v>
+      </c>
+      <c r="L97" s="5">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B98" s="2">
         <v>631</v>
@@ -3881,10 +5060,22 @@
       <c r="H98" s="2">
         <v>111000</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I98" s="3">
+        <v>14</v>
+      </c>
+      <c r="J98" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="K98" s="7">
+        <v>23</v>
+      </c>
+      <c r="L98" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B99" s="2">
         <v>570</v>
@@ -3907,10 +5098,22 @@
       <c r="H99" s="2">
         <v>98400</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I99" s="3">
+        <v>14.1</v>
+      </c>
+      <c r="J99" s="4">
+        <v>1.19</v>
+      </c>
+      <c r="K99" s="7">
+        <v>23</v>
+      </c>
+      <c r="L99" s="5">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B100" s="2">
         <v>515</v>
@@ -3933,10 +5136,22 @@
       <c r="H100" s="2">
         <v>87300</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I100" s="3">
+        <v>14</v>
+      </c>
+      <c r="J100" s="4">
+        <v>1.08</v>
+      </c>
+      <c r="K100" s="7">
+        <v>23</v>
+      </c>
+      <c r="L100" s="5">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B101" s="2">
         <v>464</v>
@@ -3959,10 +5174,22 @@
       <c r="H101" s="2">
         <v>77200</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I101" s="3">
+        <v>14</v>
+      </c>
+      <c r="J101" s="5">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="K101" s="7">
+        <v>23</v>
+      </c>
+      <c r="L101" s="5">
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B102" s="2">
         <v>395</v>
@@ -3985,10 +5212,22 @@
       <c r="H102" s="2">
         <v>32500</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I102" s="3">
+        <v>10</v>
+      </c>
+      <c r="J102" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K102" s="7">
+        <v>23</v>
+      </c>
+      <c r="L102" s="5">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B103" s="2">
         <v>343</v>
@@ -4011,10 +5250,22 @@
       <c r="H103" s="2">
         <v>27600</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I103" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="J103" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="K103" s="7">
+        <v>23</v>
+      </c>
+      <c r="L103" s="5">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B104" s="2">
         <v>305</v>
@@ -4037,10 +5288,22 @@
       <c r="H104" s="2">
         <v>24000</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I104" s="3">
+        <v>10</v>
+      </c>
+      <c r="J104" s="5">
+        <v>0.83</v>
+      </c>
+      <c r="K104" s="7">
+        <v>23</v>
+      </c>
+      <c r="L104" s="5">
+        <v>0.51500000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A105" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B105" s="2">
         <v>278</v>
@@ -4063,10 +5326,22 @@
       <c r="H105" s="2">
         <v>21300</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I105" s="3">
+        <v>10</v>
+      </c>
+      <c r="J105" s="5">
+        <v>0.745</v>
+      </c>
+      <c r="K105" s="7">
+        <v>23</v>
+      </c>
+      <c r="L105" s="5">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A106" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B106" s="2">
         <v>244</v>
@@ -4089,10 +5364,22 @@
       <c r="H106" s="2">
         <v>17900</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I106" s="3">
+        <v>10</v>
+      </c>
+      <c r="J106" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="K106" s="7">
+        <v>23</v>
+      </c>
+      <c r="L106" s="5">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A107" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B107" s="2">
         <v>1130</v>
@@ -4115,10 +5402,22 @@
       <c r="H107" s="2">
         <v>186000</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I107" s="3">
+        <v>13.7</v>
+      </c>
+      <c r="J107" s="4">
+        <v>2.72</v>
+      </c>
+      <c r="K107" s="7">
+        <v>20</v>
+      </c>
+      <c r="L107" s="4">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A108" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B108" s="2">
         <v>1020</v>
@@ -4141,10 +5440,22 @@
       <c r="H108" s="2">
         <v>161000</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I108" s="3">
+        <v>13.5</v>
+      </c>
+      <c r="J108" s="4">
+        <v>2.48</v>
+      </c>
+      <c r="K108" s="7">
+        <v>20</v>
+      </c>
+      <c r="L108" s="4">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A109" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B109" s="2">
         <v>922</v>
@@ -4167,10 +5478,22 @@
       <c r="H109" s="2">
         <v>142000</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I109" s="3">
+        <v>13.4</v>
+      </c>
+      <c r="J109" s="4">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="K109" s="7">
+        <v>20</v>
+      </c>
+      <c r="L109" s="4">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A110" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B110" s="2">
         <v>835</v>
@@ -4193,10 +5516,22 @@
       <c r="H110" s="2">
         <v>125000</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I110" s="3">
+        <v>13.3</v>
+      </c>
+      <c r="J110" s="4">
+        <v>2.09</v>
+      </c>
+      <c r="K110" s="7">
+        <v>20</v>
+      </c>
+      <c r="L110" s="4">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A111" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B111" s="2">
         <v>744</v>
@@ -4219,10 +5554,22 @@
       <c r="H111" s="2">
         <v>108000</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I111" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="J111" s="4">
+        <v>1.89</v>
+      </c>
+      <c r="K111" s="7">
+        <v>20</v>
+      </c>
+      <c r="L111" s="4">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A112" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B112" s="2">
         <v>675</v>
@@ -4245,10 +5592,22 @@
       <c r="H112" s="2">
         <v>96100</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I112" s="3">
+        <v>13.1</v>
+      </c>
+      <c r="J112" s="4">
+        <v>1.73</v>
+      </c>
+      <c r="K112" s="7">
+        <v>20</v>
+      </c>
+      <c r="L112" s="5">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A113" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B113" s="2">
         <v>606</v>
@@ -4271,10 +5630,22 @@
       <c r="H113" s="2">
         <v>84100</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I113" s="3">
+        <v>13</v>
+      </c>
+      <c r="J113" s="4">
+        <v>1.57</v>
+      </c>
+      <c r="K113" s="7">
+        <v>20</v>
+      </c>
+      <c r="L113" s="5">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A114" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B114" s="2">
         <v>559</v>
@@ -4297,10 +5668,22 @@
       <c r="H114" s="2">
         <v>76300</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I114" s="3">
+        <v>13</v>
+      </c>
+      <c r="J114" s="4">
+        <v>1.46</v>
+      </c>
+      <c r="K114" s="7">
+        <v>20</v>
+      </c>
+      <c r="L114" s="5">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A115" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B115" s="2">
         <v>511</v>
@@ -4323,10 +5706,22 @@
       <c r="H115" s="2">
         <v>68400</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I115" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="J115" s="4">
+        <v>1.34</v>
+      </c>
+      <c r="K115" s="7">
+        <v>20</v>
+      </c>
+      <c r="L115" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A116" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B116" s="2">
         <v>468</v>
@@ -4349,10 +5744,22 @@
       <c r="H116" s="2">
         <v>62600</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I116" s="3">
+        <v>13</v>
+      </c>
+      <c r="J116" s="4">
+        <v>1.22</v>
+      </c>
+      <c r="K116" s="7">
+        <v>20</v>
+      </c>
+      <c r="L116" s="5">
+        <v>0.70499999999999996</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A117" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B117" s="2">
         <v>418</v>
@@ -4375,10 +5782,22 @@
       <c r="H117" s="2">
         <v>54600</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I117" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="J117" s="4">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="K117" s="7">
+        <v>20</v>
+      </c>
+      <c r="L117" s="5">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A118" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B118" s="2">
         <v>370</v>
@@ -4401,10 +5820,22 @@
       <c r="H118" s="2">
         <v>47100</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I118" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="J118" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="K118" s="7">
+        <v>20</v>
+      </c>
+      <c r="L118" s="5">
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A119" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B119" s="2">
         <v>327</v>
@@ -4427,10 +5858,22 @@
       <c r="H119" s="2">
         <v>40800</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I119" s="3">
+        <v>12.8</v>
+      </c>
+      <c r="J119" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="K119" s="7">
+        <v>20</v>
+      </c>
+      <c r="L119" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A120" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B120" s="2">
         <v>289</v>
@@ -4453,10 +5896,22 @@
       <c r="H120" s="2">
         <v>35200</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I120" s="3">
+        <v>12.8</v>
+      </c>
+      <c r="J120" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="K120" s="7">
+        <v>20</v>
+      </c>
+      <c r="L120" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A121" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B121" s="2">
         <v>280</v>
@@ -4479,10 +5934,22 @@
       <c r="H121" s="2">
         <v>16600</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I121" s="4">
+        <v>9</v>
+      </c>
+      <c r="J121" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="K121" s="7">
+        <v>20</v>
+      </c>
+      <c r="L121" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A122" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B122" s="2">
         <v>254</v>
@@ -4505,10 +5972,22 @@
       <c r="H122" s="2">
         <v>15000</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I122" s="4">
+        <v>9.07</v>
+      </c>
+      <c r="J122" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="K122" s="7">
+        <v>20</v>
+      </c>
+      <c r="L122" s="5">
+        <v>0.51500000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A123" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B123" s="2">
         <v>224</v>
@@ -4531,10 +6010,22 @@
       <c r="H123" s="2">
         <v>12800</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I123" s="4">
+        <v>9.02</v>
+      </c>
+      <c r="J123" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="K123" s="7">
+        <v>20</v>
+      </c>
+      <c r="L123" s="5">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A124" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B124" s="2">
         <v>200</v>
@@ -4557,10 +6048,22 @@
       <c r="H124" s="2">
         <v>11100</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I124" s="4">
+        <v>8.99</v>
+      </c>
+      <c r="J124" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="K124" s="7">
+        <v>20</v>
+      </c>
+      <c r="L124" s="5">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A125" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B125" s="2">
         <v>177</v>
@@ -4583,10 +6086,22 @@
       <c r="H125" s="2">
         <v>9430</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I125" s="4">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="J125" s="5">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="K125" s="7">
+        <v>20</v>
+      </c>
+      <c r="L125" s="5">
+        <v>0.41499999999999998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A126" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B126" s="2">
         <v>153</v>
@@ -4609,10 +6124,22 @@
       <c r="H126" s="2">
         <v>4620</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I126" s="4">
+        <v>7.04</v>
+      </c>
+      <c r="J126" s="5">
+        <v>0.59</v>
+      </c>
+      <c r="K126" s="7">
+        <v>20.75</v>
+      </c>
+      <c r="L126" s="5">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A127" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B127" s="2">
         <v>134</v>
@@ -4635,10 +6162,22 @@
       <c r="H127" s="2">
         <v>3870</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I127" s="4">
+        <v>7.01</v>
+      </c>
+      <c r="J127" s="5">
+        <v>0.505</v>
+      </c>
+      <c r="K127" s="7">
+        <v>20.75</v>
+      </c>
+      <c r="L127" s="5">
+        <v>0.39500000000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A128" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B128" s="2">
         <v>749</v>
@@ -4661,10 +6200,22 @@
       <c r="H128" s="2">
         <v>94400</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I128" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="J128" s="4">
+        <v>2.19</v>
+      </c>
+      <c r="K128" s="7">
+        <v>17.25</v>
+      </c>
+      <c r="L128" s="4">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A129" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B129" s="2">
         <v>671</v>
@@ -4687,10 +6238,22 @@
       <c r="H129" s="2">
         <v>82400</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I129" s="3">
+        <v>12.8</v>
+      </c>
+      <c r="J129" s="4">
+        <v>1.99</v>
+      </c>
+      <c r="K129" s="7">
+        <v>17.25</v>
+      </c>
+      <c r="L129" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A130" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B130" s="2">
         <v>601</v>
@@ -4713,10 +6276,22 @@
       <c r="H130" s="2">
         <v>71700</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I130" s="3">
+        <v>12.7</v>
+      </c>
+      <c r="J130" s="4">
+        <v>1.79</v>
+      </c>
+      <c r="K130" s="7">
+        <v>17.25</v>
+      </c>
+      <c r="L130" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A131" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B131" s="2">
         <v>530</v>
@@ -4739,10 +6314,22 @@
       <c r="H131" s="2">
         <v>62000</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I131" s="3">
+        <v>12.6</v>
+      </c>
+      <c r="J131" s="4">
+        <v>1.63</v>
+      </c>
+      <c r="K131" s="7">
+        <v>17.25</v>
+      </c>
+      <c r="L131" s="5">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A132" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B132" s="2">
         <v>476</v>
@@ -4765,10 +6352,22 @@
       <c r="H132" s="2">
         <v>54400</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I132" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="J132" s="4">
+        <v>1.48</v>
+      </c>
+      <c r="K132" s="7">
+        <v>17.25</v>
+      </c>
+      <c r="L132" s="5">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A133" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B133" s="2">
         <v>432</v>
@@ -4791,10 +6390,22 @@
       <c r="H133" s="2">
         <v>48500</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I133" s="3">
+        <v>12.4</v>
+      </c>
+      <c r="J133" s="4">
+        <v>1.36</v>
+      </c>
+      <c r="K133" s="7">
+        <v>17.25</v>
+      </c>
+      <c r="L133" s="5">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A134" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B134" s="2">
         <v>373</v>
@@ -4817,10 +6428,22 @@
       <c r="H134" s="2">
         <v>41100</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I134" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="J134" s="4">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K134" s="7">
+        <v>17.25</v>
+      </c>
+      <c r="L134" s="5">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A135" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B135" s="2">
         <v>333</v>
@@ -4843,10 +6466,22 @@
       <c r="H135" s="2">
         <v>36000</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I135" s="3">
+        <v>12.4</v>
+      </c>
+      <c r="J135" s="4">
+        <v>1.04</v>
+      </c>
+      <c r="K135" s="7">
+        <v>17.25</v>
+      </c>
+      <c r="L135" s="5">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A136" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B136" s="2">
         <v>307</v>
@@ -4869,10 +6504,22 @@
       <c r="H136" s="2">
         <v>32700</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I136" s="3">
+        <v>12.4</v>
+      </c>
+      <c r="J136" s="5">
+        <v>0.96</v>
+      </c>
+      <c r="K136" s="7">
+        <v>17.25</v>
+      </c>
+      <c r="L136" s="5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A137" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B137" s="2">
         <v>279</v>
@@ -4895,10 +6542,22 @@
       <c r="H137" s="2">
         <v>29200</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I137" s="3">
+        <v>12.3</v>
+      </c>
+      <c r="J137" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="K137" s="7">
+        <v>17.25</v>
+      </c>
+      <c r="L137" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A138" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B138" s="2">
         <v>253</v>
@@ -4921,10 +6580,22 @@
       <c r="H138" s="2">
         <v>26200</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I138" s="3">
+        <v>12.3</v>
+      </c>
+      <c r="J138" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="K138" s="7">
+        <v>17.25</v>
+      </c>
+      <c r="L138" s="5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A139" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B139" s="2">
         <v>221</v>
@@ -4947,10 +6618,22 @@
       <c r="H139" s="2">
         <v>9940</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I139" s="4">
+        <v>8.42</v>
+      </c>
+      <c r="J139" s="5">
+        <v>0.93</v>
+      </c>
+      <c r="K139" s="7">
+        <v>18.375</v>
+      </c>
+      <c r="L139" s="5">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A140" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B140" s="2">
         <v>196</v>
@@ -4973,10 +6656,22 @@
       <c r="H140" s="2">
         <v>8630</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I140" s="4">
+        <v>8.36</v>
+      </c>
+      <c r="J140" s="5">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="K140" s="7">
+        <v>18.375</v>
+      </c>
+      <c r="L140" s="5">
+        <v>0.51500000000000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A141" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B141" s="2">
         <v>172</v>
@@ -4999,10 +6694,22 @@
       <c r="H141" s="2">
         <v>7410</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I141" s="4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="J141" s="5">
+        <v>0.74</v>
+      </c>
+      <c r="K141" s="7">
+        <v>18.375</v>
+      </c>
+      <c r="L141" s="5">
+        <v>0.45500000000000002</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A142" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B142" s="2">
         <v>160</v>
@@ -5025,10 +6732,22 @@
       <c r="H142" s="2">
         <v>6760</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I142" s="4">
+        <v>8.27</v>
+      </c>
+      <c r="J142" s="5">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="K142" s="7">
+        <v>18.375</v>
+      </c>
+      <c r="L142" s="5">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A143" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B143" s="2">
         <v>144</v>
@@ -5051,10 +6770,22 @@
       <c r="H143" s="2">
         <v>5960</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I143" s="4">
+        <v>8.24</v>
+      </c>
+      <c r="J143" s="5">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="K143" s="7">
+        <v>18.375</v>
+      </c>
+      <c r="L143" s="5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A144" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B144" s="2">
         <v>126</v>
@@ -5077,10 +6808,22 @@
       <c r="H144" s="2">
         <v>4980</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I144" s="4">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="J144" s="5">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="K144" s="7">
+        <v>18.375</v>
+      </c>
+      <c r="L144" s="5">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A145" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B145" s="2">
         <v>107</v>
@@ -5103,10 +6846,22 @@
       <c r="H145" s="2">
         <v>3950</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I145" s="4">
+        <v>8.14</v>
+      </c>
+      <c r="J145" s="5">
+        <v>0.43</v>
+      </c>
+      <c r="K145" s="7">
+        <v>18.375</v>
+      </c>
+      <c r="L145" s="5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A146" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B146" s="2">
         <v>129</v>
@@ -5129,10 +6884,22 @@
       <c r="H146" s="2">
         <v>3190</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I146" s="4">
+        <v>6.56</v>
+      </c>
+      <c r="J146" s="5">
+        <v>0.65</v>
+      </c>
+      <c r="K146" s="7">
+        <v>18.375</v>
+      </c>
+      <c r="L146" s="5">
+        <v>0.40500000000000003</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A147" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B147" s="2">
         <v>110</v>
@@ -5155,10 +6922,22 @@
       <c r="H147" s="2">
         <v>2570</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I147" s="4">
+        <v>6.53</v>
+      </c>
+      <c r="J147" s="5">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="K147" s="7">
+        <v>18.375</v>
+      </c>
+      <c r="L147" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A148" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B148" s="3">
         <v>95.4</v>
@@ -5181,10 +6960,22 @@
       <c r="H148" s="2">
         <v>2110</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I148" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="J148" s="5">
+        <v>0.45</v>
+      </c>
+      <c r="K148" s="7">
+        <v>18.375</v>
+      </c>
+      <c r="L148" s="5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A149" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B149" s="2">
         <v>754</v>
@@ -5207,10 +6998,22 @@
       <c r="H149" s="2">
         <v>76200</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I149" s="3">
+        <v>12</v>
+      </c>
+      <c r="J149" s="4">
+        <v>2.74</v>
+      </c>
+      <c r="K149" s="7">
+        <v>15.125</v>
+      </c>
+      <c r="L149" s="4">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A150" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B150" s="2">
         <v>676</v>
@@ -5233,10 +7036,22 @@
       <c r="H150" s="2">
         <v>65900</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I150" s="3">
+        <v>11.9</v>
+      </c>
+      <c r="J150" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="K150" s="7">
+        <v>15.125</v>
+      </c>
+      <c r="L150" s="4">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A151" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B151" s="2">
         <v>611</v>
@@ -5259,10 +7074,22 @@
       <c r="H151" s="2">
         <v>57600</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I151" s="3">
+        <v>11.8</v>
+      </c>
+      <c r="J151" s="4">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K151" s="7">
+        <v>15.125</v>
+      </c>
+      <c r="L151" s="4">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A152" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B152" s="2">
         <v>549</v>
@@ -5285,10 +7112,22 @@
       <c r="H152" s="2">
         <v>50100</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I152" s="3">
+        <v>11.7</v>
+      </c>
+      <c r="J152" s="4">
+        <v>2.11</v>
+      </c>
+      <c r="K152" s="7">
+        <v>15.125</v>
+      </c>
+      <c r="L152" s="4">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A153" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B153" s="2">
         <v>490</v>
@@ -5311,10 +7150,22 @@
       <c r="H153" s="2">
         <v>43400</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I153" s="3">
+        <v>11.6</v>
+      </c>
+      <c r="J153" s="4">
+        <v>1.91</v>
+      </c>
+      <c r="K153" s="7">
+        <v>15.125</v>
+      </c>
+      <c r="L153" s="4">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A154" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B154" s="2">
         <v>442</v>
@@ -5337,10 +7188,22 @@
       <c r="H154" s="2">
         <v>38000</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I154" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="J154" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="K154" s="7">
+        <v>15.125</v>
+      </c>
+      <c r="L154" s="5">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A155" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B155" s="2">
         <v>398</v>
@@ -5363,10 +7226,22 @@
       <c r="H155" s="2">
         <v>33300</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I155" s="3">
+        <v>11.4</v>
+      </c>
+      <c r="J155" s="4">
+        <v>1.59</v>
+      </c>
+      <c r="K155" s="7">
+        <v>15.125</v>
+      </c>
+      <c r="L155" s="5">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A156" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B156" s="2">
         <v>356</v>
@@ -5389,10 +7264,22 @@
       <c r="H156" s="2">
         <v>29000</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I156" s="3">
+        <v>11.3</v>
+      </c>
+      <c r="J156" s="4">
+        <v>1.44</v>
+      </c>
+      <c r="K156" s="7">
+        <v>15.125</v>
+      </c>
+      <c r="L156" s="5">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A157" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B157" s="2">
         <v>322</v>
@@ -5415,10 +7302,22 @@
       <c r="H157" s="2">
         <v>25700</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I157" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="J157" s="4">
+        <v>1.32</v>
+      </c>
+      <c r="K157" s="7">
+        <v>15.125</v>
+      </c>
+      <c r="L157" s="5">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A158" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B158" s="2">
         <v>290</v>
@@ -5441,10 +7340,22 @@
       <c r="H158" s="2">
         <v>22700</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I158" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="J158" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="K158" s="7">
+        <v>15.125</v>
+      </c>
+      <c r="L158" s="5">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A159" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B159" s="2">
         <v>262</v>
@@ -5467,10 +7378,22 @@
       <c r="H159" s="2">
         <v>20300</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I159" s="3">
+        <v>11.3</v>
+      </c>
+      <c r="J159" s="4">
+        <v>1.06</v>
+      </c>
+      <c r="K159" s="7">
+        <v>15.125</v>
+      </c>
+      <c r="L159" s="5">
+        <v>0.65500000000000003</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A160" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B160" s="2">
         <v>230</v>
@@ -5493,10 +7416,22 @@
       <c r="H160" s="2">
         <v>17400</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I160" s="3">
+        <v>11.2</v>
+      </c>
+      <c r="J160" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="K160" s="7">
+        <v>15.125</v>
+      </c>
+      <c r="L160" s="5">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A161" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B161" s="2">
         <v>211</v>
@@ -5519,10 +7454,22 @@
       <c r="H161" s="2">
         <v>15800</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I161" s="3">
+        <v>11.1</v>
+      </c>
+      <c r="J161" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="K161" s="7">
+        <v>15.125</v>
+      </c>
+      <c r="L161" s="5">
+        <v>0.53500000000000003</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A162" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B162" s="2">
         <v>186</v>
@@ -5545,10 +7492,22 @@
       <c r="H162" s="2">
         <v>13600</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I162" s="3">
+        <v>11.1</v>
+      </c>
+      <c r="J162" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="K162" s="7">
+        <v>15.125</v>
+      </c>
+      <c r="L162" s="5">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A163" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B163" s="2">
         <v>163</v>
@@ -5571,10 +7530,22 @@
       <c r="H163" s="2">
         <v>11700</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I163" s="3">
+        <v>11</v>
+      </c>
+      <c r="J163" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="K163" s="7">
+        <v>15.125</v>
+      </c>
+      <c r="L163" s="5">
+        <v>0.42499999999999999</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A164" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B164" s="2">
         <v>146</v>
@@ -5597,10 +7568,22 @@
       <c r="H164" s="2">
         <v>4700</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I164" s="4">
+        <v>7.64</v>
+      </c>
+      <c r="J164" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="K164" s="7">
+        <v>15.5</v>
+      </c>
+      <c r="L164" s="5">
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A165" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B165" s="2">
         <v>133</v>
@@ -5623,10 +7606,22 @@
       <c r="H165" s="2">
         <v>4240</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I165" s="4">
+        <v>7.59</v>
+      </c>
+      <c r="J165" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="K165" s="7">
+        <v>15.5</v>
+      </c>
+      <c r="L165" s="5">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A166" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B166" s="2">
         <v>123</v>
@@ -5649,10 +7644,22 @@
       <c r="H166" s="2">
         <v>3850</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I166" s="4">
+        <v>7.56</v>
+      </c>
+      <c r="J166" s="5">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="K166" s="7">
+        <v>15.5</v>
+      </c>
+      <c r="L166" s="5">
+        <v>0.41499999999999998</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A167" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B167" s="2">
         <v>112</v>
@@ -5675,10 +7682,22 @@
       <c r="H167" s="2">
         <v>3430</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I167" s="4">
+        <v>7.53</v>
+      </c>
+      <c r="J167" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="K167" s="7">
+        <v>15.5</v>
+      </c>
+      <c r="L167" s="5">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A168" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B168" s="2">
         <v>101</v>
@@ -5701,10 +7720,22 @@
       <c r="H168" s="2">
         <v>3040</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I168" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="J168" s="5">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="K168" s="7">
+        <v>15.5</v>
+      </c>
+      <c r="L168" s="5">
+        <v>0.35499999999999998</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A169" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B169" s="3">
         <v>90.7</v>
@@ -5727,10 +7758,22 @@
       <c r="H169" s="2">
         <v>1720</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I169" s="4">
+        <v>6.06</v>
+      </c>
+      <c r="J169" s="5">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="K169" s="7">
+        <v>15.5</v>
+      </c>
+      <c r="L169" s="5">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A170" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B170" s="3">
         <v>78.400000000000006</v>
@@ -5753,10 +7796,22 @@
       <c r="H170" s="2">
         <v>1440</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I170" s="4">
+        <v>6.02</v>
+      </c>
+      <c r="J170" s="5">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="K170" s="7">
+        <v>15.5</v>
+      </c>
+      <c r="L170" s="5">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A171" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B171" s="3">
         <v>66.5</v>
@@ -5779,10 +7834,22 @@
       <c r="H171" s="2">
         <v>1140</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I171" s="4">
+        <v>6</v>
+      </c>
+      <c r="J171" s="5">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="K171" s="7">
+        <v>15.5</v>
+      </c>
+      <c r="L171" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A172" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B172" s="2">
         <v>198</v>
@@ -5805,10 +7872,22 @@
       <c r="H172" s="2">
         <v>11900</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I172" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="J172" s="5">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="K172" s="7">
+        <v>13.25</v>
+      </c>
+      <c r="L172" s="5">
+        <v>0.58499999999999996</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A173" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B173" s="2">
         <v>175</v>
@@ -5831,10 +7910,22 @@
       <c r="H173" s="2">
         <v>10200</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I173" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="J173" s="5">
+        <v>0.875</v>
+      </c>
+      <c r="K173" s="7">
+        <v>13.25</v>
+      </c>
+      <c r="L173" s="5">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A174" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B174" s="2">
         <v>150</v>
@@ -5857,10 +7948,22 @@
       <c r="H174" s="2">
         <v>8590</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I174" s="3">
+        <v>10.3</v>
+      </c>
+      <c r="J174" s="5">
+        <v>0.76</v>
+      </c>
+      <c r="K174" s="7">
+        <v>13.25</v>
+      </c>
+      <c r="L174" s="5">
+        <v>0.45500000000000002</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A175" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B175" s="2">
         <v>130</v>
@@ -5883,10 +7986,22 @@
       <c r="H175" s="2">
         <v>7300</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I175" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J175" s="5">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="K175" s="7">
+        <v>13.25</v>
+      </c>
+      <c r="L175" s="5">
+        <v>0.39500000000000002</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A176" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B176" s="2">
         <v>105</v>
@@ -5909,10 +8024,22 @@
       <c r="H176" s="2">
         <v>2660</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I176" s="4">
+        <v>7.12</v>
+      </c>
+      <c r="J176" s="5">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="K176" s="7">
+        <v>13.625</v>
+      </c>
+      <c r="L176" s="5">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A177" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B177" s="3">
         <v>92</v>
@@ -5935,10 +8062,22 @@
       <c r="H177" s="2">
         <v>2270</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I177" s="4">
+        <v>7.07</v>
+      </c>
+      <c r="J177" s="5">
+        <v>0.63</v>
+      </c>
+      <c r="K177" s="7">
+        <v>13.625</v>
+      </c>
+      <c r="L177" s="5">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A178" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B178" s="3">
         <v>82.3</v>
@@ -5961,10 +8100,22 @@
       <c r="H178" s="2">
         <v>1990</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I178" s="4">
+        <v>7.04</v>
+      </c>
+      <c r="J178" s="5">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="K178" s="7">
+        <v>13.625</v>
+      </c>
+      <c r="L178" s="5">
+        <v>0.34499999999999997</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A179" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B179" s="3">
         <v>73</v>
@@ -5987,10 +8138,22 @@
       <c r="H179" s="2">
         <v>1730</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I179" s="4">
+        <v>7</v>
+      </c>
+      <c r="J179" s="5">
+        <v>0.505</v>
+      </c>
+      <c r="K179" s="7">
+        <v>13.625</v>
+      </c>
+      <c r="L179" s="5">
+        <v>0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A180" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B180" s="3">
         <v>64</v>
@@ -6013,10 +8176,22 @@
       <c r="H180" s="2">
         <v>1460</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I180" s="4">
+        <v>6.99</v>
+      </c>
+      <c r="J180" s="5">
+        <v>0.43</v>
+      </c>
+      <c r="K180" s="7">
+        <v>13.625</v>
+      </c>
+      <c r="L180" s="5">
+        <v>0.29499999999999998</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A181" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B181" s="3">
         <v>54</v>
@@ -6039,10 +8214,22 @@
       <c r="H181" s="2">
         <v>739</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I181" s="4">
+        <v>5.53</v>
+      </c>
+      <c r="J181" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="K181" s="7">
+        <v>13.625</v>
+      </c>
+      <c r="L181" s="5">
+        <v>0.27500000000000002</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A182" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B182" s="3">
         <v>44.2</v>
@@ -6065,10 +8252,22 @@
       <c r="H182" s="2">
         <v>565</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I182" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="J182" s="5">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="K182" s="7">
+        <v>13.625</v>
+      </c>
+      <c r="L182" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A183" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B183" s="2">
         <v>2030</v>
@@ -6091,10 +8290,22 @@
       <c r="H183" s="2">
         <v>505000</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I183" s="3">
+        <v>18.8</v>
+      </c>
+      <c r="J183" s="4">
+        <v>5.51</v>
+      </c>
+      <c r="K183" s="7">
+        <v>11.25</v>
+      </c>
+      <c r="L183" s="4">
+        <v>3.94</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A184" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B184" s="2">
         <v>1830</v>
@@ -6117,10 +8328,22 @@
       <c r="H184" s="2">
         <v>434000</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I184" s="3">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="J184" s="4">
+        <v>5.12</v>
+      </c>
+      <c r="K184" s="7">
+        <v>11.25</v>
+      </c>
+      <c r="L184" s="4">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A185" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B185" s="2">
         <v>1660</v>
@@ -6143,10 +8366,22 @@
       <c r="H185" s="2">
         <v>362000</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I185" s="3">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="J185" s="4">
+        <v>4.91</v>
+      </c>
+      <c r="K185" s="7">
+        <v>10</v>
+      </c>
+      <c r="L185" s="4">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A186" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B186" s="2">
         <v>1480</v>
@@ -6169,10 +8404,22 @@
       <c r="H186" s="2">
         <v>305000</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I186" s="3">
+        <v>17.7</v>
+      </c>
+      <c r="J186" s="4">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="K186" s="7">
+        <v>10</v>
+      </c>
+      <c r="L186" s="4">
+        <v>2.83</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A187" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B187" s="2">
         <v>1320</v>
@@ -6195,10 +8442,22 @@
       <c r="H187" s="2">
         <v>258000</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I187" s="3">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="J187" s="4">
+        <v>4.16</v>
+      </c>
+      <c r="K187" s="7">
+        <v>10</v>
+      </c>
+      <c r="L187" s="4">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A188" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B188" s="2">
         <v>1180</v>
@@ -6221,10 +8480,22 @@
       <c r="H188" s="2">
         <v>219000</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I188" s="3">
+        <v>17.2</v>
+      </c>
+      <c r="J188" s="4">
+        <v>3.82</v>
+      </c>
+      <c r="K188" s="7">
+        <v>10</v>
+      </c>
+      <c r="L188" s="4">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A189" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B189" s="2">
         <v>1050</v>
@@ -6247,10 +8518,22 @@
       <c r="H189" s="2">
         <v>187000</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I189" s="3">
+        <v>17</v>
+      </c>
+      <c r="J189" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="K189" s="7">
+        <v>10</v>
+      </c>
+      <c r="L189" s="4">
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A190" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B190" s="2">
         <v>936</v>
@@ -6273,10 +8556,22 @@
       <c r="H190" s="2">
         <v>160000</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I190" s="3">
+        <v>16.8</v>
+      </c>
+      <c r="J190" s="4">
+        <v>3.21</v>
+      </c>
+      <c r="K190" s="7">
+        <v>10</v>
+      </c>
+      <c r="L190" s="4">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A191" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B191" s="2">
         <v>869</v>
@@ -6299,10 +8594,22 @@
       <c r="H191" s="2">
         <v>144000</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I191" s="3">
+        <v>16.7</v>
+      </c>
+      <c r="J191" s="4">
+        <v>3.04</v>
+      </c>
+      <c r="K191" s="7">
+        <v>10</v>
+      </c>
+      <c r="L191" s="4">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A192" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B192" s="2">
         <v>801</v>
@@ -6325,10 +8632,22 @@
       <c r="H192" s="2">
         <v>129000</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I192" s="3">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="J192" s="4">
+        <v>2.85</v>
+      </c>
+      <c r="K192" s="7">
+        <v>10</v>
+      </c>
+      <c r="L192" s="4">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A193" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B193" s="2">
         <v>736</v>
@@ -6351,10 +8670,22 @@
       <c r="H193" s="2">
         <v>116000</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I193" s="3">
+        <v>16.5</v>
+      </c>
+      <c r="J193" s="4">
+        <v>2.66</v>
+      </c>
+      <c r="K193" s="7">
+        <v>10</v>
+      </c>
+      <c r="L193" s="4">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A194" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B194" s="2">
         <v>672</v>
@@ -6377,10 +8708,22 @@
       <c r="H194" s="2">
         <v>103000</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I194" s="3">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="J194" s="4">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="K194" s="7">
+        <v>10</v>
+      </c>
+      <c r="L194" s="4">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A195" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B195" s="2">
         <v>603</v>
@@ -6403,10 +8746,22 @@
       <c r="H195" s="2">
         <v>89100</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I195" s="3">
+        <v>16.2</v>
+      </c>
+      <c r="J195" s="4">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="K195" s="7">
+        <v>10</v>
+      </c>
+      <c r="L195" s="4">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A196" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B196" s="2">
         <v>542</v>
@@ -6429,10 +8784,22 @@
       <c r="H196" s="2">
         <v>77700</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I196" s="3">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="J196" s="4">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="K196" s="7">
+        <v>10</v>
+      </c>
+      <c r="L196" s="4">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A197" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B197" s="2">
         <v>487</v>
@@ -6455,10 +8822,22 @@
       <c r="H197" s="2">
         <v>67800</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I197" s="3">
+        <v>16</v>
+      </c>
+      <c r="J197" s="4">
+        <v>1.89</v>
+      </c>
+      <c r="K197" s="7">
+        <v>10</v>
+      </c>
+      <c r="L197" s="4">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A198" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B198" s="2">
         <v>436</v>
@@ -6481,10 +8860,22 @@
       <c r="H198" s="2">
         <v>59000</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I198" s="3">
+        <v>15.9</v>
+      </c>
+      <c r="J198" s="4">
+        <v>1.72</v>
+      </c>
+      <c r="K198" s="7">
+        <v>10</v>
+      </c>
+      <c r="L198" s="4">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A199" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B199" s="2">
         <v>390</v>
@@ -6507,10 +8898,22 @@
       <c r="H199" s="2">
         <v>51500</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I199" s="3">
+        <v>15.8</v>
+      </c>
+      <c r="J199" s="4">
+        <v>1.56</v>
+      </c>
+      <c r="K199" s="7">
+        <v>10</v>
+      </c>
+      <c r="L199" s="5">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A200" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B200" s="2">
         <v>355</v>
@@ -6533,10 +8936,22 @@
       <c r="H200" s="2">
         <v>45900</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I200" s="3">
+        <v>15.7</v>
+      </c>
+      <c r="J200" s="4">
+        <v>1.44</v>
+      </c>
+      <c r="K200" s="7">
+        <v>10</v>
+      </c>
+      <c r="L200" s="5">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A201" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B201" s="2">
         <v>320</v>
@@ -6559,10 +8974,22 @@
       <c r="H201" s="2">
         <v>40500</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I201" s="3">
+        <v>15.7</v>
+      </c>
+      <c r="J201" s="4">
+        <v>1.31</v>
+      </c>
+      <c r="K201" s="7">
+        <v>10</v>
+      </c>
+      <c r="L201" s="5">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A202" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B202" s="2">
         <v>287</v>
@@ -6585,10 +9012,22 @@
       <c r="H202" s="2">
         <v>35600</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I202" s="3">
+        <v>15.6</v>
+      </c>
+      <c r="J202" s="4">
+        <v>1.19</v>
+      </c>
+      <c r="K202" s="7">
+        <v>10</v>
+      </c>
+      <c r="L202" s="5">
+        <v>0.745</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A203" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B203" s="2">
         <v>260</v>
@@ -6611,10 +9050,22 @@
       <c r="H203" s="2">
         <v>31700</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I203" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="J203" s="4">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="K203" s="7">
+        <v>10</v>
+      </c>
+      <c r="L203" s="5">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A204" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B204" s="2">
         <v>234</v>
@@ -6637,10 +9088,22 @@
       <c r="H204" s="2">
         <v>25500</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I204" s="3">
+        <v>14.7</v>
+      </c>
+      <c r="J204" s="4">
+        <v>1.03</v>
+      </c>
+      <c r="K204" s="7">
+        <v>10</v>
+      </c>
+      <c r="L204" s="5">
+        <v>0.64500000000000002</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A205" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B205" s="2">
         <v>212</v>
@@ -6663,10 +9126,22 @@
       <c r="H205" s="2">
         <v>22700</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I205" s="3">
+        <v>14.7</v>
+      </c>
+      <c r="J205" s="5">
+        <v>0.94</v>
+      </c>
+      <c r="K205" s="7">
+        <v>10</v>
+      </c>
+      <c r="L205" s="5">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A206" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B206" s="2">
         <v>192</v>
@@ -6689,10 +9164,22 @@
       <c r="H206" s="2">
         <v>20200</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I206" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="J206" s="5">
+        <v>0.86</v>
+      </c>
+      <c r="K206" s="7">
+        <v>10</v>
+      </c>
+      <c r="L206" s="5">
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A207" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B207" s="2">
         <v>173</v>
@@ -6715,10 +9202,22 @@
       <c r="H207" s="2">
         <v>18000</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I207" s="3">
+        <v>14.6</v>
+      </c>
+      <c r="J207" s="5">
+        <v>0.78</v>
+      </c>
+      <c r="K207" s="7">
+        <v>10</v>
+      </c>
+      <c r="L207" s="5">
+        <v>0.48499999999999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A208" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B208" s="2">
         <v>157</v>
@@ -6741,10 +9240,22 @@
       <c r="H208" s="2">
         <v>16000</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I208" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="J208" s="5">
+        <v>0.71</v>
+      </c>
+      <c r="K208" s="7">
+        <v>10</v>
+      </c>
+      <c r="L208" s="5">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A209" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B209" s="2">
         <v>139</v>
@@ -6767,10 +9278,22 @@
       <c r="H209" s="2">
         <v>6710</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I209" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="J209" s="5">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="K209" s="7">
+        <v>10.875</v>
+      </c>
+      <c r="L209" s="5">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A210" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B210" s="2">
         <v>126</v>
@@ -6793,10 +9316,22 @@
       <c r="H210" s="2">
         <v>5990</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I210" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="J210" s="5">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="K210" s="7">
+        <v>10.875</v>
+      </c>
+      <c r="L210" s="5">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A211" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B211" s="2">
         <v>115</v>
@@ -6819,10 +9354,22 @@
       <c r="H211" s="2">
         <v>5380</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I211" s="3">
+        <v>10</v>
+      </c>
+      <c r="J211" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="K211" s="7">
+        <v>10.875</v>
+      </c>
+      <c r="L211" s="5">
+        <v>0.41499999999999998</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A212" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B212" s="2">
         <v>102</v>
@@ -6845,10 +9392,22 @@
       <c r="H212" s="2">
         <v>4710</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I212" s="3">
+        <v>10</v>
+      </c>
+      <c r="J212" s="5">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="K212" s="7">
+        <v>10.875</v>
+      </c>
+      <c r="L212" s="5">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A213" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B213" s="3">
         <v>87.1</v>
@@ -6871,10 +9430,22 @@
       <c r="H213" s="2">
         <v>2540</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I213" s="4">
+        <v>8.06</v>
+      </c>
+      <c r="J213" s="5">
+        <v>0.66</v>
+      </c>
+      <c r="K213" s="7">
+        <v>10.875</v>
+      </c>
+      <c r="L213" s="5">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A214" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B214" s="3">
         <v>78.400000000000006</v>
@@ -6897,10 +9468,22 @@
       <c r="H214" s="2">
         <v>2240</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I214" s="4">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="J214" s="5">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="K214" s="7">
+        <v>10.875</v>
+      </c>
+      <c r="L214" s="5">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A215" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B215" s="3">
         <v>69.599999999999994</v>
@@ -6923,10 +9506,22 @@
       <c r="H215" s="2">
         <v>1950</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I215" s="4">
+        <v>8</v>
+      </c>
+      <c r="J215" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="K215" s="7">
+        <v>10.875</v>
+      </c>
+      <c r="L215" s="5">
+        <v>0.30499999999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A216" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B216" s="3">
         <v>61.5</v>
@@ -6949,10 +9544,22 @@
       <c r="H216" s="2">
         <v>1230</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I216" s="4">
+        <v>6.77</v>
+      </c>
+      <c r="J216" s="5">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="K216" s="7">
+        <v>11.625</v>
+      </c>
+      <c r="L216" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A217" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B217" s="3">
         <v>54.6</v>
@@ -6975,10 +9582,22 @@
       <c r="H217" s="2">
         <v>1070</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I217" s="4">
+        <v>6.75</v>
+      </c>
+      <c r="J217" s="5">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="K217" s="7">
+        <v>11.625</v>
+      </c>
+      <c r="L217" s="5">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A218" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B218" s="3">
         <v>47.3</v>
@@ -7001,10 +9620,22 @@
       <c r="H218" s="2">
         <v>887</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I218" s="4">
+        <v>6.73</v>
+      </c>
+      <c r="J218" s="5">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="K218" s="7">
+        <v>11.625</v>
+      </c>
+      <c r="L218" s="5">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A219" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B219" s="3">
         <v>40.200000000000003</v>
@@ -7027,10 +9658,22 @@
       <c r="H219" s="2">
         <v>405</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I219" s="4">
+        <v>5.03</v>
+      </c>
+      <c r="J219" s="5">
+        <v>0.42</v>
+      </c>
+      <c r="K219" s="7">
+        <v>11.625</v>
+      </c>
+      <c r="L219" s="5">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A220" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B220" s="3">
         <v>33.200000000000003</v>
@@ -7053,10 +9696,22 @@
       <c r="H220" s="2">
         <v>314</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I220" s="4">
+        <v>5</v>
+      </c>
+      <c r="J220" s="5">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="K220" s="7">
+        <v>11.625</v>
+      </c>
+      <c r="L220" s="5">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A221" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B221" s="2">
         <v>603</v>
@@ -7079,10 +9734,22 @@
       <c r="H221" s="2">
         <v>57000</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I221" s="3">
+        <v>13.4</v>
+      </c>
+      <c r="J221" s="4">
+        <v>2.96</v>
+      </c>
+      <c r="K221" s="7">
+        <v>9.125</v>
+      </c>
+      <c r="L221" s="4">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A222" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B222" s="2">
         <v>537</v>
@@ -7105,10 +9772,22 @@
       <c r="H222" s="2">
         <v>48600</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I222" s="3">
+        <v>13.2</v>
+      </c>
+      <c r="J222" s="4">
+        <v>2.71</v>
+      </c>
+      <c r="K222" s="7">
+        <v>9.125</v>
+      </c>
+      <c r="L222" s="4">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A223" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B223" s="2">
         <v>481</v>
@@ -7131,10 +9810,22 @@
       <c r="H223" s="2">
         <v>42000</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I223" s="3">
+        <v>13.1</v>
+      </c>
+      <c r="J223" s="4">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="K223" s="7">
+        <v>9.125</v>
+      </c>
+      <c r="L223" s="4">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A224" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B224" s="2">
         <v>428</v>
@@ -7157,10 +9848,22 @@
       <c r="H224" s="2">
         <v>35800</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I224" s="3">
+        <v>13</v>
+      </c>
+      <c r="J224" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="K224" s="7">
+        <v>9.125</v>
+      </c>
+      <c r="L224" s="4">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A225" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B225" s="2">
         <v>386</v>
@@ -7183,10 +9886,22 @@
       <c r="H225" s="2">
         <v>31200</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I225" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="J225" s="4">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="K225" s="7">
+        <v>9.125</v>
+      </c>
+      <c r="L225" s="4">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A226" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B226" s="2">
         <v>348</v>
@@ -7209,10 +9924,22 @@
       <c r="H226" s="2">
         <v>27200</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I226" s="3">
+        <v>12.8</v>
+      </c>
+      <c r="J226" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="K226" s="7">
+        <v>9.125</v>
+      </c>
+      <c r="L226" s="4">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A227" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B227" s="2">
         <v>311</v>
@@ -7235,10 +9962,22 @@
       <c r="H227" s="2">
         <v>23600</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I227" s="3">
+        <v>12.7</v>
+      </c>
+      <c r="J227" s="4">
+        <v>1.74</v>
+      </c>
+      <c r="K227" s="7">
+        <v>9.125</v>
+      </c>
+      <c r="L227" s="4">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A228" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B228" s="2">
         <v>275</v>
@@ -7261,10 +10000,22 @@
       <c r="H228" s="2">
         <v>20100</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I228" s="3">
+        <v>12.6</v>
+      </c>
+      <c r="J228" s="4">
+        <v>1.56</v>
+      </c>
+      <c r="K228" s="7">
+        <v>9.125</v>
+      </c>
+      <c r="L228" s="5">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A229" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B229" s="2">
         <v>243</v>
@@ -7287,10 +10038,22 @@
       <c r="H229" s="2">
         <v>17200</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I229" s="3">
+        <v>12.5</v>
+      </c>
+      <c r="J229" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="K229" s="7">
+        <v>9.125</v>
+      </c>
+      <c r="L229" s="5">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A230" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B230" s="2">
         <v>214</v>
@@ -7313,10 +10076,22 @@
       <c r="H230" s="2">
         <v>14700</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I230" s="3">
+        <v>12.4</v>
+      </c>
+      <c r="J230" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="K230" s="7">
+        <v>9.125</v>
+      </c>
+      <c r="L230" s="5">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A231" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B231" s="2">
         <v>186</v>
@@ -7339,10 +10114,22 @@
       <c r="H231" s="2">
         <v>12400</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I231" s="3">
+        <v>12.3</v>
+      </c>
+      <c r="J231" s="4">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="K231" s="7">
+        <v>9.125</v>
+      </c>
+      <c r="L231" s="5">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A232" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B232" s="2">
         <v>164</v>
@@ -7365,10 +10152,22 @@
       <c r="H232" s="2">
         <v>10700</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I232" s="3">
+        <v>12.2</v>
+      </c>
+      <c r="J232" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="K232" s="7">
+        <v>9.125</v>
+      </c>
+      <c r="L232" s="5">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A233" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B233" s="2">
         <v>147</v>
@@ -7391,10 +10190,22 @@
       <c r="H233" s="2">
         <v>9410</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I233" s="3">
+        <v>12.2</v>
+      </c>
+      <c r="J233" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="K233" s="7">
+        <v>9.125</v>
+      </c>
+      <c r="L233" s="5">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A234" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B234" s="2">
         <v>132</v>
@@ -7417,10 +10228,22 @@
       <c r="H234" s="2">
         <v>8270</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I234" s="3">
+        <v>12.1</v>
+      </c>
+      <c r="J234" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="K234" s="7">
+        <v>9.125</v>
+      </c>
+      <c r="L234" s="5">
+        <v>0.51500000000000001</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A235" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B235" s="2">
         <v>119</v>
@@ -7443,10 +10266,22 @@
       <c r="H235" s="2">
         <v>7330</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I235" s="3">
+        <v>12.1</v>
+      </c>
+      <c r="J235" s="5">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="K235" s="7">
+        <v>9.125</v>
+      </c>
+      <c r="L235" s="5">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A236" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B236" s="2">
         <v>108</v>
@@ -7469,10 +10304,22 @@
       <c r="H236" s="2">
         <v>6540</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I236" s="3">
+        <v>12</v>
+      </c>
+      <c r="J236" s="5">
+        <v>0.67</v>
+      </c>
+      <c r="K236" s="7">
+        <v>9.125</v>
+      </c>
+      <c r="L236" s="5">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A237" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B237" s="3">
         <v>96.8</v>
@@ -7495,10 +10342,22 @@
       <c r="H237" s="2">
         <v>5780</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I237" s="3">
+        <v>12</v>
+      </c>
+      <c r="J237" s="5">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="K237" s="7">
+        <v>9.125</v>
+      </c>
+      <c r="L237" s="5">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A238" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B238" s="3">
         <v>86.4</v>
@@ -7521,10 +10380,22 @@
       <c r="H238" s="2">
         <v>3570</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I238" s="3">
+        <v>10</v>
+      </c>
+      <c r="J238" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="K238" s="7">
+        <v>9.25</v>
+      </c>
+      <c r="L238" s="5">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A239" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B239" s="3">
         <v>77.900000000000006</v>
@@ -7547,10 +10418,22 @@
       <c r="H239" s="2">
         <v>3160</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I239" s="3">
+        <v>10</v>
+      </c>
+      <c r="J239" s="5">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="K239" s="7">
+        <v>9.25</v>
+      </c>
+      <c r="L239" s="5">
+        <v>0.34499999999999997</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A240" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B240" s="3">
         <v>71.900000000000006</v>
@@ -7573,10 +10456,22 @@
       <c r="H240" s="2">
         <v>1880</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I240" s="4">
+        <v>8.08</v>
+      </c>
+      <c r="J240" s="5">
+        <v>0.64</v>
+      </c>
+      <c r="K240" s="7">
+        <v>9.25</v>
+      </c>
+      <c r="L240" s="5">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A241" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B241" s="3">
         <v>64.2</v>
@@ -7599,10 +10494,22 @@
       <c r="H241" s="2">
         <v>1650</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I241" s="4">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="J241" s="5">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="K241" s="7">
+        <v>9.25</v>
+      </c>
+      <c r="L241" s="5">
+        <v>0.33500000000000002</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A242" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B242" s="3">
         <v>57</v>
@@ -7625,10 +10532,22 @@
       <c r="H242" s="2">
         <v>1440</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I242" s="4">
+        <v>8.01</v>
+      </c>
+      <c r="J242" s="5">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="K242" s="7">
+        <v>9.25</v>
+      </c>
+      <c r="L242" s="5">
+        <v>0.29499999999999998</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A243" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B243" s="3">
         <v>51.2</v>
@@ -7651,10 +10570,22 @@
       <c r="H243" s="2">
         <v>879</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I243" s="4">
+        <v>6.56</v>
+      </c>
+      <c r="J243" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="K243" s="7">
+        <v>10.125</v>
+      </c>
+      <c r="L243" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A244" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B244" s="3">
         <v>43.1</v>
@@ -7677,10 +10608,22 @@
       <c r="H244" s="2">
         <v>720</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I244" s="4">
+        <v>6.52</v>
+      </c>
+      <c r="J244" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="K244" s="7">
+        <v>10.125</v>
+      </c>
+      <c r="L244" s="5">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A245" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B245" s="3">
         <v>37.200000000000003</v>
@@ -7703,10 +10646,22 @@
       <c r="H245" s="2">
         <v>607</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I245" s="4">
+        <v>6.49</v>
+      </c>
+      <c r="J245" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="K245" s="7">
+        <v>10.125</v>
+      </c>
+      <c r="L245" s="5">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A246" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B246" s="3">
         <v>29.3</v>
@@ -7729,10 +10684,22 @@
       <c r="H246" s="2">
         <v>164</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I246" s="4">
+        <v>4.03</v>
+      </c>
+      <c r="J246" s="5">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="K246" s="7">
+        <v>10.375</v>
+      </c>
+      <c r="L246" s="5">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A247" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B247" s="3">
         <v>24.7</v>
@@ -7755,10 +10722,22 @@
       <c r="H247" s="2">
         <v>131</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I247" s="4">
+        <v>4.01</v>
+      </c>
+      <c r="J247" s="5">
+        <v>0.35</v>
+      </c>
+      <c r="K247" s="7">
+        <v>10.375</v>
+      </c>
+      <c r="L247" s="5">
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A248" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B248" s="3">
         <v>20.100000000000001</v>
@@ -7781,10 +10760,22 @@
       <c r="H248" s="3">
         <v>96.9</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I248" s="4">
+        <v>3.99</v>
+      </c>
+      <c r="J248" s="5">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="K248" s="7">
+        <v>10.375</v>
+      </c>
+      <c r="L248" s="5">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A249" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B249" s="3">
         <v>17.399999999999999</v>
@@ -7807,10 +10798,22 @@
       <c r="H249" s="3">
         <v>80.400000000000006</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I249" s="4">
+        <v>3.97</v>
+      </c>
+      <c r="J249" s="5">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="K249" s="7">
+        <v>10.375</v>
+      </c>
+      <c r="L249" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A250" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B250" s="2">
         <v>147</v>
@@ -7833,10 +10836,22 @@
       <c r="H250" s="2">
         <v>6020</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I250" s="3">
+        <v>10.4</v>
+      </c>
+      <c r="J250" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="K250" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="L250" s="5">
+        <v>0.755</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A251" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B251" s="2">
         <v>130</v>
@@ -7859,10 +10874,22 @@
       <c r="H251" s="2">
         <v>5150</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I251" s="3">
+        <v>10.3</v>
+      </c>
+      <c r="J251" s="4">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="K251" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="L251" s="5">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A252" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B252" s="2">
         <v>113</v>
@@ -7885,10 +10912,22 @@
       <c r="H252" s="2">
         <v>4330</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I252" s="3">
+        <v>10.3</v>
+      </c>
+      <c r="J252" s="5">
+        <v>0.99</v>
+      </c>
+      <c r="K252" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="L252" s="5">
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A253" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B253" s="3">
         <v>97.6</v>
@@ -7911,10 +10950,22 @@
       <c r="H253" s="2">
         <v>3630</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I253" s="3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J253" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="K253" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="L253" s="5">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A254" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B254" s="3">
         <v>85.3</v>
@@ -7937,10 +10988,22 @@
       <c r="H254" s="2">
         <v>3100</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I254" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="J254" s="5">
+        <v>0.77</v>
+      </c>
+      <c r="K254" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="L254" s="5">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A255" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B255" s="3">
         <v>74.599999999999994</v>
@@ -7963,10 +11026,22 @@
       <c r="H255" s="2">
         <v>2640</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I255" s="3">
+        <v>10.1</v>
+      </c>
+      <c r="J255" s="5">
+        <v>0.68</v>
+      </c>
+      <c r="K255" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="L255" s="5">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A256" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B256" s="3">
         <v>66.599999999999994</v>
@@ -7989,10 +11064,22 @@
       <c r="H256" s="2">
         <v>2320</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I256" s="3">
+        <v>10</v>
+      </c>
+      <c r="J256" s="5">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="K256" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="L256" s="5">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A257" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B257" s="3">
         <v>60.4</v>
@@ -8015,10 +11102,22 @@
       <c r="H257" s="2">
         <v>2070</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I257" s="3">
+        <v>10</v>
+      </c>
+      <c r="J257" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K257" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="L257" s="5">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A258" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B258" s="3">
         <v>54.9</v>
@@ -8041,10 +11140,22 @@
       <c r="H258" s="2">
         <v>1200</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I258" s="4">
+        <v>8.02</v>
+      </c>
+      <c r="J258" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="K258" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="L258" s="5">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A259" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B259" s="3">
         <v>46.8</v>
@@ -8067,10 +11178,22 @@
       <c r="H259" s="2">
         <v>992</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I259" s="4">
+        <v>7.99</v>
+      </c>
+      <c r="J259" s="5">
+        <v>0.53</v>
+      </c>
+      <c r="K259" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="L259" s="5">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A260" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B260" s="3">
         <v>38.799999999999997</v>
@@ -8093,10 +11216,22 @@
       <c r="H260" s="2">
         <v>791</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I260" s="4">
+        <v>7.96</v>
+      </c>
+      <c r="J260" s="5">
+        <v>0.435</v>
+      </c>
+      <c r="K260" s="7">
+        <v>7.5</v>
+      </c>
+      <c r="L260" s="5">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A261" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B261" s="3">
         <v>36.6</v>
@@ -8119,10 +11254,22 @@
       <c r="H261" s="2">
         <v>414</v>
       </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I261" s="4">
+        <v>5.81</v>
+      </c>
+      <c r="J261" s="5">
+        <v>0.51</v>
+      </c>
+      <c r="K261" s="7">
+        <v>8.25</v>
+      </c>
+      <c r="L261" s="5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A262" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B262" s="3">
         <v>31.3</v>
@@ -8145,10 +11292,22 @@
       <c r="H262" s="2">
         <v>345</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I262" s="4">
+        <v>5.77</v>
+      </c>
+      <c r="J262" s="5">
+        <v>0.44</v>
+      </c>
+      <c r="K262" s="7">
+        <v>8.25</v>
+      </c>
+      <c r="L262" s="5">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A263" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B263" s="3">
         <v>26</v>
@@ -8171,10 +11330,22 @@
       <c r="H263" s="2">
         <v>275</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I263" s="4">
+        <v>5.75</v>
+      </c>
+      <c r="J263" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="K263" s="7">
+        <v>8.25</v>
+      </c>
+      <c r="L263" s="5">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A264" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B264" s="3">
         <v>21.6</v>
@@ -8197,10 +11368,22 @@
       <c r="H264" s="2">
         <v>104</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I264" s="4">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="J264" s="5">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="K264" s="7">
+        <v>8.375</v>
+      </c>
+      <c r="L264" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A265" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B265" s="3">
         <v>18.7</v>
@@ -8223,10 +11406,22 @@
       <c r="H265" s="3">
         <v>85.1</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I265" s="4">
+        <v>4.01</v>
+      </c>
+      <c r="J265" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="K265" s="7">
+        <v>8.375</v>
+      </c>
+      <c r="L265" s="5">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A266" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B266" s="3">
         <v>16</v>
@@ -8249,10 +11444,22 @@
       <c r="H266" s="3">
         <v>68.3</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I266" s="4">
+        <v>4</v>
+      </c>
+      <c r="J266" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="K266" s="7">
+        <v>8.375</v>
+      </c>
+      <c r="L266" s="5">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A267" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B267" s="3">
         <v>12.6</v>
@@ -8275,10 +11482,22 @@
       <c r="H267" s="3">
         <v>50.9</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I267" s="4">
+        <v>3.96</v>
+      </c>
+      <c r="J267" s="5">
+        <v>0.21</v>
+      </c>
+      <c r="K267" s="7">
+        <v>8.375</v>
+      </c>
+      <c r="L267" s="5">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A268" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B268" s="3">
         <v>70.099999999999994</v>
@@ -8301,10 +11520,22 @@
       <c r="H268" s="2">
         <v>1440</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I268" s="4">
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="J268" s="5">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="K268" s="7">
+        <v>5.75</v>
+      </c>
+      <c r="L268" s="5">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A269" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B269" s="3">
         <v>59.8</v>
@@ -8327,10 +11558,22 @@
       <c r="H269" s="2">
         <v>1180</v>
       </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I269" s="4">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="J269" s="5">
+        <v>0.81</v>
+      </c>
+      <c r="K269" s="7">
+        <v>5.75</v>
+      </c>
+      <c r="L269" s="5">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A270" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B270" s="3">
         <v>49</v>
@@ -8353,10 +11596,22 @@
       <c r="H270" s="2">
         <v>931</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I270" s="4">
+        <v>8.11</v>
+      </c>
+      <c r="J270" s="5">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="K270" s="7">
+        <v>5.75</v>
+      </c>
+      <c r="L270" s="5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A271" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B271" s="3">
         <v>39.799999999999997</v>
@@ -8379,10 +11634,22 @@
       <c r="H271" s="2">
         <v>726</v>
       </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I271" s="4">
+        <v>8.07</v>
+      </c>
+      <c r="J271" s="5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K271" s="7">
+        <v>5.75</v>
+      </c>
+      <c r="L271" s="5">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A272" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B272" s="3">
         <v>34.700000000000003</v>
@@ -8405,10 +11672,22 @@
       <c r="H272" s="2">
         <v>619</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I272" s="4">
+        <v>8.02</v>
+      </c>
+      <c r="J272" s="5">
+        <v>0.495</v>
+      </c>
+      <c r="K272" s="7">
+        <v>5.75</v>
+      </c>
+      <c r="L272" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A273" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B273" s="3">
         <v>30.4</v>
@@ -8431,10 +11710,22 @@
       <c r="H273" s="2">
         <v>530</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I273" s="4">
+        <v>8</v>
+      </c>
+      <c r="J273" s="5">
+        <v>0.435</v>
+      </c>
+      <c r="K273" s="7">
+        <v>5.75</v>
+      </c>
+      <c r="L273" s="5">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A274" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B274" s="3">
         <v>27.2</v>
@@ -8457,10 +11748,22 @@
       <c r="H274" s="2">
         <v>312</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I274" s="4">
+        <v>6.54</v>
+      </c>
+      <c r="J274" s="5">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="K274" s="7">
+        <v>6.125</v>
+      </c>
+      <c r="L274" s="5">
+        <v>0.28499999999999998</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A275" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B275" s="3">
         <v>23.1</v>
@@ -8483,10 +11786,22 @@
       <c r="H275" s="2">
         <v>259</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I275" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="J275" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="K275" s="7">
+        <v>6.125</v>
+      </c>
+      <c r="L275" s="5">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A276" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B276" s="3">
         <v>20.399999999999999</v>
@@ -8509,10 +11824,22 @@
       <c r="H276" s="2">
         <v>152</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I276" s="4">
+        <v>5.27</v>
+      </c>
+      <c r="J276" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="K276" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="L276" s="5">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A277" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B277" s="3">
         <v>17</v>
@@ -8535,10 +11862,22 @@
       <c r="H277" s="2">
         <v>122</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I277" s="4">
+        <v>5.25</v>
+      </c>
+      <c r="J277" s="5">
+        <v>0.33</v>
+      </c>
+      <c r="K277" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="L277" s="5">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A278" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B278" s="3">
         <v>13.6</v>
@@ -8561,10 +11900,22 @@
       <c r="H278" s="3">
         <v>51.8</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I278" s="4">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="J278" s="5">
+        <v>0.315</v>
+      </c>
+      <c r="K278" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="L278" s="5">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A279" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B279" s="3">
         <v>11.4</v>
@@ -8587,10 +11938,22 @@
       <c r="H279" s="3">
         <v>40.799999999999997</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I279" s="4">
+        <v>4</v>
+      </c>
+      <c r="J279" s="5">
+        <v>0.255</v>
+      </c>
+      <c r="K279" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="L279" s="5">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A280" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B280" s="4">
         <v>8.8699999999999992</v>
@@ -8613,10 +11976,22 @@
       <c r="H280" s="3">
         <v>30.9</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I280" s="4">
+        <v>3.94</v>
+      </c>
+      <c r="J280" s="5">
+        <v>0.20499999999999999</v>
+      </c>
+      <c r="K280" s="7">
+        <v>6.5</v>
+      </c>
+      <c r="L280" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A281" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B281" s="3">
         <v>18.899999999999999</v>
@@ -8639,10 +12014,22 @@
       <c r="H281" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I281" s="4">
+        <v>6.08</v>
+      </c>
+      <c r="J281" s="5">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="K281" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="L281" s="5">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A282" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B282" s="3">
         <v>14.9</v>
@@ -8665,10 +12052,22 @@
       <c r="H282" s="2">
         <v>113</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I282" s="4">
+        <v>6.02</v>
+      </c>
+      <c r="J282" s="5">
+        <v>0.36499999999999999</v>
+      </c>
+      <c r="K282" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="L282" s="5">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A283" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B283" s="3">
         <v>10.8</v>
@@ -8691,10 +12090,22 @@
       <c r="H283" s="3">
         <v>76.5</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I283" s="4">
+        <v>5.99</v>
+      </c>
+      <c r="J283" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="K283" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="L283" s="5">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A284" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B284" s="3">
         <v>11.7</v>
@@ -8717,10 +12128,22 @@
       <c r="H284" s="3">
         <v>38.200000000000003</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I284" s="4">
+        <v>4.03</v>
+      </c>
+      <c r="J284" s="5">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="K284" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="L284" s="5">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A285" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B285" s="4">
         <v>8.3000000000000007</v>
@@ -8743,10 +12166,22 @@
       <c r="H285" s="3">
         <v>24.7</v>
       </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I285" s="4">
+        <v>4</v>
+      </c>
+      <c r="J285" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K285" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="L285" s="5">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A286" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B286" s="4">
         <v>6.23</v>
@@ -8769,10 +12204,22 @@
       <c r="H286" s="3">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I286" s="4">
+        <v>3.94</v>
+      </c>
+      <c r="J286" s="5">
+        <v>0.215</v>
+      </c>
+      <c r="K286" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="L286" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A287" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B287" s="4">
         <v>5.73</v>
@@ -8795,10 +12242,22 @@
       <c r="H287" s="3">
         <v>15.8</v>
       </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I287" s="4">
+        <v>3.94</v>
+      </c>
+      <c r="J287" s="5">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="K287" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="L287" s="5">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A288" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B288" s="3">
         <v>11.6</v>
@@ -8821,10 +12280,22 @@
       <c r="H288" s="3">
         <v>50.9</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I288" s="4">
+        <v>5.03</v>
+      </c>
+      <c r="J288" s="5">
+        <v>0.43</v>
+      </c>
+      <c r="K288" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="L288" s="5">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A289" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B289" s="4">
         <v>9.6300000000000008</v>
@@ -8847,10 +12318,22 @@
       <c r="H289" s="3">
         <v>40.6</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I289" s="4">
+        <v>5</v>
+      </c>
+      <c r="J289" s="5">
+        <v>0.36</v>
+      </c>
+      <c r="K289" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="L289" s="5">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A290" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B290" s="4">
         <v>6.28</v>
@@ -8872,6 +12355,18 @@
       </c>
       <c r="H290" s="3">
         <v>14</v>
+      </c>
+      <c r="I290" s="4">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="J290" s="5">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="K290" s="7">
+        <v>2.625</v>
+      </c>
+      <c r="L290" s="5">
+        <v>0.28000000000000003</v>
       </c>
     </row>
   </sheetData>
